--- a/medicine/Enfance/Danny,_champion_du_monde/Danny,_champion_du_monde.xlsx
+++ b/medicine/Enfance/Danny,_champion_du_monde/Danny,_champion_du_monde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Danny, champion du monde (titre original : Danny, the Champion of the World) est un roman de Roald Dahl paru en 1975.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Danny Smith et son père sont les plus grands copains du monde. Sa mère est morte quand il avait quatre mois, maintenant ils habitent tous les deux dans une roulotte à côté de leur petite station service, ce lieu magique où s'est déroulé l'enfance de Danny Smith. À huit ans, Danny est déjà très fort en mécanique. Il adore travailler avec Papa, jouer avec lui, écouter ses histoires. Mais un jour, Danny va découvrir un secret : son Papa est le génie du braconnage. Danny va tout faire pour que lui aussi soit le champion du monde de braconnage 
 </t>
@@ -543,7 +557,9 @@
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Portail de la littérature britannique   Portail de la littérature d’enfance et de jeunesse                    </t>
         </is>
